--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698788.3547935075</v>
+        <v>720775.4791074039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843295</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6413871.489227924</v>
+        <v>6944938.776708614</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>97.36454674747804</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>243.7924853425804</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>24.34318456170442</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>332.8674687389441</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>286.8662084168973</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480023263</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>184.881664452623</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>202.3889873441468</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430581</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>230.5067678295852</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.341092693413701</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.97358346682226</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>144.5785428541249</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>192.6947085449831</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2132,10 +2134,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.45405731752537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>22.2853439284767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>188.4544525887578</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>99.92737017624191</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3986,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>221.774480175688</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>117.9071773788868</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>67.65667327773772</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.0927207504066</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C2" t="n">
-        <v>54.74469373275195</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D2" t="n">
-        <v>54.74469373275195</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E2" t="n">
-        <v>54.74469373275195</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V2" t="n">
-        <v>1811.676332945317</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W2" t="n">
-        <v>1406.82087835635</v>
+        <v>3056.253598413406</v>
       </c>
       <c r="X2" t="n">
-        <v>987.678414935661</v>
+        <v>2637.111134992716</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.3922912353144</v>
+        <v>2637.111134992716</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>830.0689141524103</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C4" t="n">
-        <v>657.5072026356353</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D4" t="n">
-        <v>491.629209837158</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E4" t="n">
-        <v>321.8712060878952</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F4" t="n">
-        <v>145.1641520496514</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2577.993317935594</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>2332.11387151405</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>2053.680870767155</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>1766.725362637585</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.698958223877</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X4" t="n">
-        <v>1249.307203557289</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y4" t="n">
-        <v>1021.887532871398</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.784699541985</v>
+        <v>2072.0742894738</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.784699541985</v>
+        <v>1633.931816657223</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.784699541985</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="E5" t="n">
-        <v>884.0099547002803</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F5" t="n">
-        <v>456.1425251094881</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M5" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N5" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V5" t="n">
-        <v>2141.782617551641</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="W5" t="n">
-        <v>1736.927162962675</v>
+        <v>2780.980599780244</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.784699541985</v>
+        <v>2361.838136359555</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.784699541985</v>
+        <v>2072.0742894738</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>397.8608366497954</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F7" t="n">
-        <v>57.91594775297747</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1318.201488914845</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.201488914845</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D8" t="n">
-        <v>1318.201488914845</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E8" t="n">
-        <v>884.4267440731403</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F8" t="n">
-        <v>456.5593144823481</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2550.485530624847</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W8" t="n">
-        <v>2145.630076035881</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X8" t="n">
-        <v>1726.487612615192</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y8" t="n">
-        <v>1318.201488914845</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M9" t="n">
-        <v>758.2739518360149</v>
+        <v>829.4236910780509</v>
       </c>
       <c r="N9" t="n">
-        <v>1435.73953677882</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="O9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1045.142905119309</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C10" t="n">
-        <v>872.5811936025335</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D10" t="n">
-        <v>706.7032008040562</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E10" t="n">
-        <v>536.9451970547935</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F10" t="n">
-        <v>360.2381430165498</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G10" t="n">
-        <v>194.6468680423774</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2547.187862480948</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U10" t="n">
-        <v>2268.754861734053</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V10" t="n">
-        <v>1981.799353604483</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W10" t="n">
-        <v>1709.772949190775</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X10" t="n">
-        <v>1464.381194524188</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y10" t="n">
-        <v>1236.961523838296</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1550.619818561768</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="C11" t="n">
-        <v>1550.619818561768</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D11" t="n">
-        <v>1550.619818561768</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E11" t="n">
-        <v>1116.845073720063</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F11" t="n">
-        <v>688.9776441292711</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G11" t="n">
-        <v>287.579812752535</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3656.700238024192</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>3294.083287958018</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>2889.227833369051</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>2470.085369948362</v>
       </c>
       <c r="Y11" t="n">
-        <v>1550.619818561768</v>
+        <v>2061.799246248016</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K12" t="n">
-        <v>732.2102786755574</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L12" t="n">
-        <v>1040.518870268755</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.518870268755</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="N12" t="n">
-        <v>1040.518870268755</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="O12" t="n">
-        <v>1040.518870268755</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="P12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.802854344633</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>884.0099547002803</v>
+        <v>1080.983618291964</v>
       </c>
       <c r="C14" t="n">
-        <v>884.0099547002803</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="D14" t="n">
-        <v>884.0099547002803</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E14" t="n">
-        <v>884.0099547002803</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.270315736198</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="M14" t="n">
-        <v>1513.270315736198</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="N14" t="n">
-        <v>1513.270315736198</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O14" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.735900679003</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V14" t="n">
-        <v>2542.593566895191</v>
+        <v>2739.567230486874</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.738112306224</v>
+        <v>2334.711775897908</v>
       </c>
       <c r="X14" t="n">
-        <v>1718.595648885535</v>
+        <v>1915.569312477218</v>
       </c>
       <c r="Y14" t="n">
-        <v>1310.309525185188</v>
+        <v>1507.283188776872</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>58.04882857612763</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J15" t="n">
-        <v>382.60715354234</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,40 +5527,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5704,19 +5706,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5780,7 +5782,7 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2499.553657656408</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5989,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,25 +6305,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.0677766831641</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>754.506065166389</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>588.6280723679117</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>418.8700686186489</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2674.992180466348</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2429.112734044803</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.679733297909</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.724225168339</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.697820754631</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1346.306066088043</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.886395402151</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>414.500552094942</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>414.500552094942</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L33" t="n">
-        <v>414.500552094942</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M33" t="n">
-        <v>414.500552094942</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
         <v>2496.382403636182</v>
@@ -6886,22 +6888,22 @@
         <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>4932.38282354235</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>4799.052520862807</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>4512.097012733238</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>4240.070608319529</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>3994.678853652942</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6925,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>535.6838670561251</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1213.149451998931</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M41" t="n">
-        <v>1890.615036941736</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N41" t="n">
-        <v>1890.615036941736</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O41" t="n">
-        <v>2568.080621884541</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>2568.080621884541</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>2636.297949085838</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>2217.155485665149</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2217.155485665149</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.05756769164</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528282</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674835</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001789</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.006564617951</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884134</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700347</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>2027.949495860804</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>3547.952806084816</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627539</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.49150295814</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958109</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020108</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753302</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771403</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E43" t="n">
-        <v>234.6230017912213</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F43" t="n">
-        <v>57.91594775297747</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2191.836957184118</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1753.694484367541</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.784699541985</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>884.0099547002803</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>456.1425251094881</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M44" t="n">
-        <v>1409.675863618363</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N44" t="n">
-        <v>2087.141448561168</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>2618.136527669025</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>2618.136527669025</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>2618.136527669025</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>2618.136527669025</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2618.136527669025</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1036.264935564073</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C46" t="n">
-        <v>863.7032240472978</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W46" t="n">
-        <v>1700.894979635539</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.503224968952</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.08355428306</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>687.6461816022031</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O9" t="n">
-        <v>166.7395356953541</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>311.4228197911091</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593994</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>349.2983329370936</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33750994280372</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,7 +9646,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>485.797144771084</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>336.3965013409329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>157.0144147004966</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22717,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.5921776627262</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22784,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,13 +22837,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>26.12331182656766</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>117.3370540464458</v>
       </c>
     </row>
     <row r="6">
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444073</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>174.1091161128887</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
     </row>
     <row r="9">
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23230,7 +23232,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>55.73208518163074</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>248.2889869627396</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.1718905122106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>289.1825052342861</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>166.2960720205286</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.3636110865066</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>54.48338453116386</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25688,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>300.8795298668351</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>138.7229022772665</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>96.5625395927548</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.71657238081404</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>438156.7297535029</v>
+        <v>529594.8103420928</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>438156.7297535029</v>
+        <v>529594.8103420928</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>438156.729753503</v>
+        <v>529594.8103420928</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438156.7297535029</v>
+        <v>529594.8103420928</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438156.7297535029</v>
+        <v>529594.8103420928</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672278.2869276766</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672278.2869276769</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672278.2869276766</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672278.2869276766</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672278.2869276768</v>
+        <v>672278.2869276769</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672278.2869276768</v>
+        <v>672278.2869276766</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438156.7297535029</v>
+        <v>529594.8103420929</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438156.7297535029</v>
+        <v>529594.8103420928</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="C2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="D2" t="n">
-        <v>180273.9361289993</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="E2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="F2" t="n">
-        <v>180273.9361289993</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="G2" t="n">
         <v>276600.23167211</v>
@@ -26350,10 +26352,10 @@
         <v>276600.23167211</v>
       </c>
       <c r="O2" t="n">
-        <v>180273.9361289991</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="P2" t="n">
-        <v>180273.9361289991</v>
+        <v>217894.9552311347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="C4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="D4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019528</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142330.2778964851</v>
+        <v>-200317.9695153015</v>
       </c>
       <c r="C6" t="n">
-        <v>86997.29707602784</v>
+        <v>106749.0007714162</v>
       </c>
       <c r="D6" t="n">
-        <v>86997.29707602787</v>
+        <v>106749.0007714162</v>
       </c>
       <c r="E6" t="n">
-        <v>120624.8970760278</v>
+        <v>140376.6007714162</v>
       </c>
       <c r="F6" t="n">
-        <v>120624.8970760279</v>
+        <v>140376.6007714162</v>
       </c>
       <c r="G6" t="n">
-        <v>8404.626517673387</v>
+        <v>71984.87068084281</v>
       </c>
       <c r="H6" t="n">
-        <v>171197.9143161148</v>
+        <v>171197.9143161149</v>
       </c>
       <c r="I6" t="n">
         <v>171197.9143161148</v>
       </c>
       <c r="J6" t="n">
-        <v>-7847.34377153714</v>
+        <v>-68541.61527062794</v>
       </c>
       <c r="K6" t="n">
-        <v>171197.9143161148</v>
+        <v>171197.9143161149</v>
       </c>
       <c r="L6" t="n">
         <v>171197.9143161148</v>
       </c>
       <c r="M6" t="n">
-        <v>171197.9143161148</v>
+        <v>171197.9143161149</v>
       </c>
       <c r="N6" t="n">
-        <v>171197.9143161148</v>
+        <v>171197.9143161149</v>
       </c>
       <c r="O6" t="n">
-        <v>120624.8970760277</v>
+        <v>140376.6007714162</v>
       </c>
       <c r="P6" t="n">
-        <v>120624.8970760277</v>
+        <v>140376.6007714163</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>687.6461816022031</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O9" t="n">
-        <v>166.7395356953541</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307558</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>311.4228197911091</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593994</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,10 +35649,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>349.2983329370936</v>
+        <v>706.5117780691758</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33750994280372</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>289.0667057209139</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>485.797144771084</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720775.4791074039</v>
+        <v>719154.3206161207</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772116</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>243.7924853425804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>16.27512444231475</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -907,16 +907,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>9.45571504194027</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>286.8662084168973</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.3889873441468</v>
+        <v>349.9111824213419</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>18.05677735225737</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>378.0973016520261</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>8.341092693413701</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>144.5785428541249</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>195.1569564646409</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022785</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>188.4544525887578</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480023854</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>195.1569564646411</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>402.3720623632308</v>
       </c>
     </row>
     <row r="42">
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225737</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3988,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>221.774480175688</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>391.8901639493881</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.05677735225737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2210.811564507809</v>
+        <v>2499.524929691732</v>
       </c>
       <c r="C2" t="n">
-        <v>1772.669091691232</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.759306865676</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E2" t="n">
-        <v>902.9845620239714</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F2" t="n">
-        <v>475.1171324331792</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G2" t="n">
-        <v>73.7193010564431</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H2" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
         <v>73.30251168358311</v>
@@ -4345,37 +4345,37 @@
         <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>3078.335948012416</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>3624.83473397101</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U2" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V2" t="n">
-        <v>3302.508634112982</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="W2" t="n">
-        <v>3056.253598413406</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="X2" t="n">
-        <v>2637.111134992716</v>
+        <v>2942.264019815342</v>
       </c>
       <c r="Y2" t="n">
-        <v>2637.111134992716</v>
+        <v>2925.82450017664</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
         <v>1078.630556435977</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>782.7963491011951</v>
+        <v>1917.201180395972</v>
       </c>
       <c r="C4" t="n">
-        <v>610.2346375844201</v>
+        <v>1744.639468879197</v>
       </c>
       <c r="D4" t="n">
-        <v>444.3566447859428</v>
+        <v>1578.761476080719</v>
       </c>
       <c r="E4" t="n">
-        <v>274.59864103668</v>
+        <v>1409.003472331456</v>
       </c>
       <c r="F4" t="n">
-        <v>97.89158699843622</v>
+        <v>1232.296418293213</v>
       </c>
       <c r="G4" t="n">
-        <v>73.30251168358311</v>
+        <v>1066.70514331904</v>
       </c>
       <c r="H4" t="n">
-        <v>73.30251168358311</v>
+        <v>1066.70514331904</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358311</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="J4" t="n">
-        <v>159.882196848273</v>
+        <v>1135.045659441046</v>
       </c>
       <c r="K4" t="n">
-        <v>434.6406514194085</v>
+        <v>1409.804114012181</v>
       </c>
       <c r="L4" t="n">
-        <v>852.8505331873696</v>
+        <v>1828.013995780142</v>
       </c>
       <c r="M4" t="n">
-        <v>1312.334400368283</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1754.593203525927</v>
+        <v>2729.7566661187</v>
       </c>
       <c r="O4" t="n">
-        <v>2174.262452751709</v>
+        <v>3149.425915344481</v>
       </c>
       <c r="P4" t="n">
-        <v>2521.769346722051</v>
+        <v>3496.932809314823</v>
       </c>
       <c r="Q4" t="n">
-        <v>2689.962121586383</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R4" t="n">
-        <v>2689.962121586383</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S4" t="n">
-        <v>2530.720752884379</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T4" t="n">
-        <v>2284.841306462834</v>
+        <v>3419.246137757611</v>
       </c>
       <c r="U4" t="n">
-        <v>2006.40830571594</v>
+        <v>3140.813137010716</v>
       </c>
       <c r="V4" t="n">
-        <v>1719.45279758637</v>
+        <v>2853.857628881146</v>
       </c>
       <c r="W4" t="n">
-        <v>1447.426393172662</v>
+        <v>2581.831224467438</v>
       </c>
       <c r="X4" t="n">
-        <v>1202.034638506074</v>
+        <v>2336.43946980085</v>
       </c>
       <c r="Y4" t="n">
-        <v>974.6149678201823</v>
+        <v>2109.019799114959</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.0742894738</v>
+        <v>2098.127098314996</v>
       </c>
       <c r="C5" t="n">
-        <v>1633.931816657223</v>
+        <v>1659.98462549842</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.022031831668</v>
+        <v>1224.074840672864</v>
       </c>
       <c r="E5" t="n">
-        <v>764.247286989963</v>
+        <v>790.3000958311591</v>
       </c>
       <c r="F5" t="n">
-        <v>764.247286989963</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8494556132268</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H5" t="n">
-        <v>73.7193010564431</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
         <v>73.30251168358311</v>
@@ -4582,37 +4582,37 @@
         <v>1342.907491094679</v>
       </c>
       <c r="O5" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>3078.335948012416</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3624.83473397101</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3445.058357052194</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3185.836054369211</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V5" t="n">
-        <v>3185.836054369211</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="W5" t="n">
-        <v>2780.980599780244</v>
+        <v>3351.85525592094</v>
       </c>
       <c r="X5" t="n">
-        <v>2361.838136359555</v>
+        <v>2932.712792500251</v>
       </c>
       <c r="Y5" t="n">
-        <v>2072.0742894738</v>
+        <v>2524.426668799904</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8608366497954</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8608366497954</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8608366497954</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8608366497954</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8608366497954</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8608366497954</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
         <v>1078.630556435977</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>782.7963491011951</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C7" t="n">
-        <v>610.2346375844201</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D7" t="n">
-        <v>444.3566447859428</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E7" t="n">
-        <v>274.59864103668</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F7" t="n">
-        <v>97.89158699843622</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G7" t="n">
-        <v>73.30251168358311</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H7" t="n">
         <v>73.30251168358311</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2530.720752884379</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T7" t="n">
-        <v>2284.841306462834</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U7" t="n">
-        <v>2006.40830571594</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V7" t="n">
-        <v>1719.45279758637</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W7" t="n">
-        <v>1447.426393172662</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.034638506074</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.6149678201823</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2210.394775134949</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="C8" t="n">
-        <v>1772.252302318372</v>
+        <v>2061.382456875156</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.342517492816</v>
+        <v>1625.4726720496</v>
       </c>
       <c r="E8" t="n">
-        <v>902.5677726511115</v>
+        <v>1191.697927207895</v>
       </c>
       <c r="F8" t="n">
-        <v>474.7003430603193</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G8" t="n">
-        <v>73.30251168358311</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H8" t="n">
         <v>73.30251168358311</v>
@@ -4810,16 +4810,16 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>2042.354151383163</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M8" t="n">
-        <v>2042.354151383163</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N8" t="n">
-        <v>2042.354151383163</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O8" t="n">
-        <v>2949.472733467504</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
         <v>2949.472733467504</v>
@@ -4849,7 +4849,7 @@
         <v>2841.1276661695</v>
       </c>
       <c r="Y8" t="n">
-        <v>2636.694345619856</v>
+        <v>2487.682027360063</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>829.4236910780509</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
         <v>1736.542273162392</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>942.0377178031986</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>769.4760062864235</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>603.5980134879462</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>433.8400097386835</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>257.1329557004397</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
         <v>73.30251168358311</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2165.649674417943</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>1878.694166288373</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1606.667761874665</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1361.276007208078</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>1133.856336522186</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2061.799246248016</v>
+        <v>2191.33019944625</v>
       </c>
       <c r="C11" t="n">
-        <v>2061.799246248016</v>
+        <v>1753.187726629674</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.88946142246</v>
+        <v>1317.277941804118</v>
       </c>
       <c r="E11" t="n">
-        <v>1192.114716580755</v>
+        <v>883.5031969624133</v>
       </c>
       <c r="F11" t="n">
-        <v>764.247286989963</v>
+        <v>455.6357673716211</v>
       </c>
       <c r="G11" t="n">
-        <v>362.8494556132268</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H11" t="n">
         <v>73.7193010564431</v>
@@ -5047,22 +5047,22 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.907491094679</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O11" t="n">
-        <v>2250.02607317902</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P11" t="n">
-        <v>3078.335948012416</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.83473397101</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R11" t="n">
         <v>3665.125584179155</v>
@@ -5071,22 +5071,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179155</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U11" t="n">
-        <v>3656.700238024192</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V11" t="n">
-        <v>3294.083287958018</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.227833369051</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="X11" t="n">
-        <v>2470.085369948362</v>
+        <v>3025.915893631505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2061.799246248016</v>
+        <v>2617.629769931158</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L12" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M12" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N12" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O12" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
         <v>1736.542273162392</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.378527806567</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>588.816816289792</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>422.9388234913147</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>253.1808197420519</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>76.47376570380814</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
         <v>73.30251168358311</v>
@@ -5223,28 +5223,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2509.302931589751</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2263.423485168206</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.990484421312</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>1698.034976291742</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.008571878034</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1180.616817211446</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>953.1971465255542</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1080.983618291964</v>
+        <v>1809.413733131072</v>
       </c>
       <c r="C14" t="n">
-        <v>934.9446861160802</v>
+        <v>1371.271260314496</v>
       </c>
       <c r="D14" t="n">
-        <v>934.9446861160802</v>
+        <v>935.3614754889402</v>
       </c>
       <c r="E14" t="n">
-        <v>501.1699412743753</v>
+        <v>501.5867306472354</v>
       </c>
       <c r="F14" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="G14" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H14" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>2042.354151383163</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>2042.354151383163</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>2042.354151383163</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>2949.472733467504</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>2949.472733467504</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3361.406483236031</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="U14" t="n">
-        <v>3102.184180553048</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="V14" t="n">
-        <v>2739.567230486874</v>
+        <v>3467.997345325983</v>
       </c>
       <c r="W14" t="n">
-        <v>2334.711775897908</v>
+        <v>3063.141890737016</v>
       </c>
       <c r="X14" t="n">
-        <v>1915.569312477218</v>
+        <v>2643.999427316327</v>
       </c>
       <c r="Y14" t="n">
-        <v>1507.283188776872</v>
+        <v>2235.71330361598</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>980.4210937679239</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>980.4210937679239</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>980.4210937679239</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.378527806567</v>
+        <v>782.7963491011951</v>
       </c>
       <c r="C16" t="n">
-        <v>588.816816289792</v>
+        <v>610.2346375844201</v>
       </c>
       <c r="D16" t="n">
-        <v>422.9388234913147</v>
+        <v>444.3566447859428</v>
       </c>
       <c r="E16" t="n">
-        <v>253.1808197420519</v>
+        <v>274.59864103668</v>
       </c>
       <c r="F16" t="n">
-        <v>76.47376570380814</v>
+        <v>97.89158699843622</v>
       </c>
       <c r="G16" t="n">
         <v>73.30251168358311</v>
@@ -5460,28 +5460,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2509.302931589751</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T16" t="n">
-        <v>2263.423485168206</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.990484421312</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V16" t="n">
-        <v>1698.034976291742</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.008571878034</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X16" t="n">
-        <v>1180.616817211446</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y16" t="n">
-        <v>953.1971465255542</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,28 +5761,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1004.611946844417</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1423.850236249296</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.430565563404</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>2676.260711694652</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>2499.553657656408</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2006.541971984245</v>
+        <v>2072.0742894738</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.399499167669</v>
+        <v>1633.931816657223</v>
       </c>
       <c r="D41" t="n">
-        <v>1132.489714342113</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="E41" t="n">
-        <v>698.7149695004082</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F41" t="n">
-        <v>270.8475399096159</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G41" t="n">
-        <v>73.7193010564431</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H41" t="n">
         <v>73.7193010564431</v>
@@ -7417,13 +7417,13 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N41" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O41" t="n">
         <v>2290.316923387164</v>
@@ -7447,16 +7447,16 @@
         <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3665.125584179155</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W41" t="n">
-        <v>3260.270129590189</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X41" t="n">
-        <v>2841.1276661695</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y41" t="n">
-        <v>2432.841542469153</v>
+        <v>2072.0742894738</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2508.05756769164</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>2401.601106528282</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>2306.510817674835</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>2212.390403001789</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>2129.006564617951</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>2043.621474884134</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>2001.885822700347</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>2027.949495860804</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>2352.507820827017</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>2352.507820827017</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>2352.507820827017</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>2352.507820827017</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>2352.507820827017</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>3547.952806084816</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>3665.125584179155</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>3601.670146627539</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>3471.49150295814</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>3295.154955958109</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>3096.037438020108</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>2910.714683753302</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>2755.847247992182</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>2629.361468771403</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>942.0377178031986</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>769.4760062864235</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>603.5980134879462</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>433.8400097386835</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>257.1329557004397</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
         <v>73.30251168358311</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2165.649674417943</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1878.694166288373</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1606.667761874665</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1361.276007208078</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.856336522186</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2006.541971984245</v>
+        <v>2072.0742894738</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.399499167669</v>
+        <v>1633.931816657223</v>
       </c>
       <c r="D44" t="n">
-        <v>1132.489714342113</v>
+        <v>1198.022031831668</v>
       </c>
       <c r="E44" t="n">
-        <v>698.7149695004082</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F44" t="n">
-        <v>474.7003430603193</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G44" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I44" t="n">
         <v>73.30251168358311</v>
@@ -7654,13 +7654,13 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="M44" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="N44" t="n">
-        <v>1383.198341302823</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="O44" t="n">
         <v>2290.316923387164</v>
@@ -7684,16 +7684,16 @@
         <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3665.125584179155</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W44" t="n">
-        <v>3260.270129590189</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="X44" t="n">
-        <v>2841.1276661695</v>
+        <v>2906.659983659054</v>
       </c>
       <c r="Y44" t="n">
-        <v>2432.841542469153</v>
+        <v>2498.373859958708</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>423.924509810253</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
         <v>1078.630556435977</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>942.0377178031986</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>769.4760062864235</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>603.5980134879462</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>433.8400097386835</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>257.1329557004397</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
         <v>73.30251168358311</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2165.649674417943</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1878.694166288373</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1606.667761874665</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1361.276007208078</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.856336522186</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
@@ -8002,7 +8002,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
@@ -8239,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>687.6461816022031</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,7 +8458,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>706.5117780691758</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>706.5117780691758</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9409,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,7 +9658,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
+        <v>916.2813960447888</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>40.69782849307467</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
+        <v>916.2813960447888</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>40.69782849307467</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>157.0144147004966</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9281380210284</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081413</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>391.3511850011367</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>117.3370540464458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22956,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>201.8142751191963</v>
+        <v>54.29208004200115</v>
       </c>
     </row>
     <row r="9">
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,7 +23229,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>19.28655141094259</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>248.2889869627396</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1825052342861</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.70959839105083</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444078</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.48338453116386</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7958207444067</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2268965983276</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.831200100112312</v>
       </c>
     </row>
     <row r="42">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142719</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>201.8142751191963</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>23.06087483709433</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71657238081404</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>529594.8103420928</v>
+        <v>529594.8103420929</v>
       </c>
     </row>
     <row r="5">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672278.2869276768</v>
+        <v>672278.2869276766</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672278.2869276769</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672278.2869276766</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="14">
@@ -26319,7 +26319,7 @@
         <v>217894.9552311347</v>
       </c>
       <c r="D2" t="n">
-        <v>217894.9552311347</v>
+        <v>217894.9552311348</v>
       </c>
       <c r="E2" t="n">
         <v>217894.9552311347</v>
@@ -26355,7 +26355,7 @@
         <v>217894.9552311347</v>
       </c>
       <c r="P2" t="n">
-        <v>217894.9552311347</v>
+        <v>217894.9552311346</v>
       </c>
     </row>
     <row r="3">
@@ -26459,7 +26459,7 @@
         <v>21808.44558019529</v>
       </c>
       <c r="P4" t="n">
-        <v>21808.44558019528</v>
+        <v>21808.44558019529</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200317.9695153015</v>
+        <v>-200620.7427901174</v>
       </c>
       <c r="C6" t="n">
-        <v>106749.0007714162</v>
+        <v>106446.2274966004</v>
       </c>
       <c r="D6" t="n">
-        <v>106749.0007714162</v>
+        <v>106446.2274966004</v>
       </c>
       <c r="E6" t="n">
-        <v>140376.6007714162</v>
+        <v>140073.8274966004</v>
       </c>
       <c r="F6" t="n">
-        <v>140376.6007714162</v>
+        <v>140073.8274966004</v>
       </c>
       <c r="G6" t="n">
-        <v>71984.87068084281</v>
+        <v>71961.6463414602</v>
       </c>
       <c r="H6" t="n">
-        <v>171197.9143161149</v>
+        <v>171174.6899767322</v>
       </c>
       <c r="I6" t="n">
-        <v>171197.9143161148</v>
+        <v>171174.6899767322</v>
       </c>
       <c r="J6" t="n">
-        <v>-68541.61527062794</v>
+        <v>-68564.83961001052</v>
       </c>
       <c r="K6" t="n">
-        <v>171197.9143161149</v>
+        <v>171174.6899767322</v>
       </c>
       <c r="L6" t="n">
-        <v>171197.9143161148</v>
+        <v>171174.6899767322</v>
       </c>
       <c r="M6" t="n">
-        <v>171197.9143161149</v>
+        <v>171174.6899767322</v>
       </c>
       <c r="N6" t="n">
-        <v>171197.9143161149</v>
+        <v>171174.6899767322</v>
       </c>
       <c r="O6" t="n">
-        <v>140376.6007714162</v>
+        <v>140073.8274966004</v>
       </c>
       <c r="P6" t="n">
-        <v>140376.6007714163</v>
+        <v>140073.8274966003</v>
       </c>
     </row>
   </sheetData>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>687.6461816022031</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35178,7 +35178,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>706.5117780691758</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307558</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>706.5117780691758</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36129,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36378,7 +36378,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36612,7 +36612,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,10 +37317,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
+        <v>916.2813960447888</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>40.69782849307467</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458551</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38022,16 +38022,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
+        <v>916.2813960447888</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>40.69782849307467</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458551</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
